--- a/Test_usando_il_modello_3.xlsx
+++ b/Test_usando_il_modello_3.xlsx
@@ -440,427 +440,427 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44.1101835760546</v>
+        <v>43.63717779732323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24.98783259691075</v>
+        <v>25.26993961287565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26.61129749300619</v>
+        <v>25.7139452826859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.46263707106766</v>
+        <v>21.61282162320063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22.00096579314823</v>
+        <v>21.30751531249774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21.47347847125414</v>
+        <v>20.90322275874323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23.36222342155952</v>
+        <v>22.48756082702388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.58099688007837</v>
+        <v>18.29439548919828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24.47132493875213</v>
+        <v>24.23377528778366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17.43968956219786</v>
+        <v>16.11400757820931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13.71080598008402</v>
+        <v>10.90894950325495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20.18688287218811</v>
+        <v>18.12865209125238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.39753641037527</v>
+        <v>18.67173236435809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.5132676510012</v>
+        <v>14.68173723046135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17.59551265628485</v>
+        <v>15.93782430269817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.74621372202498</v>
+        <v>15.97868083297291</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.34628127428115</v>
+        <v>9.557168634852786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.70692399663184</v>
+        <v>17.57070945552513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.86110571569506</v>
+        <v>13.70835898906233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16.88253471932885</v>
+        <v>15.11769696404329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16.13688584209601</v>
+        <v>14.4545245314518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13.20315967141974</v>
+        <v>12.00596857699631</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14.74169589402734</v>
+        <v>14.62082409183182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14.38896153537019</v>
+        <v>13.07653650146946</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>18.00054967636697</v>
+        <v>17.04084803783749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15.94232636919892</v>
+        <v>15.36164955716816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.83302560570678</v>
+        <v>9.706612241580984</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15.76691269854149</v>
+        <v>15.25898608711805</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15.14816557773725</v>
+        <v>14.37294801123835</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17.57592800254471</v>
+        <v>17.11357208974596</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14.28473628249483</v>
+        <v>14.19681811435214</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13.59821809936361</v>
+        <v>13.28797829480777</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12.68874226958931</v>
+        <v>12.21367515580084</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11.43045893054673</v>
+        <v>10.43522857299075</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.51090288167367</v>
+        <v>13.54590686294839</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13.70687586078716</v>
+        <v>13.36611842234905</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14.92972532950193</v>
+        <v>14.74325740490616</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13.93600568911063</v>
+        <v>13.58740068732033</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15.25311498903304</v>
+        <v>14.97260439818496</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15.25837606845397</v>
+        <v>15.1488091706025</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16.25893508107904</v>
+        <v>16.11641364992687</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11.42573623483941</v>
+        <v>10.36442283400939</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.42543009797009</v>
+        <v>13.36202965610286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.28119034981722</v>
+        <v>9.367137243731662</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.584121046727887</v>
+        <v>7.275907842615055</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12.42461098107611</v>
+        <v>11.97103489066868</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11.01215050393606</v>
+        <v>10.34613999164296</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12.40424542711096</v>
+        <v>12.49896050983048</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.91458780647784</v>
+        <v>10.77407049346436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12.45886412829927</v>
+        <v>12.14767845824653</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.95101301970774</v>
+        <v>10.62567925887222</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.669273332288554</v>
+        <v>8.991245458666782</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.89437919755485</v>
+        <v>11.9275206734506</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11.65492264739427</v>
+        <v>11.46363991443434</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11.6779419898607</v>
+        <v>11.45638472121456</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.350093438658121</v>
+        <v>8.714185167188219</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.81551730774208</v>
+        <v>10.46915209224312</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10.3405085289146</v>
+        <v>9.80045994206526</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.747789640761823</v>
+        <v>9.297621732168665</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.31671251743555</v>
+        <v>10.1045564530618</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11.90710546740985</v>
+        <v>11.99008487396756</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.13734391421363</v>
+        <v>15.08287799329577</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>14.99515836169462</v>
+        <v>14.84994778659845</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.806580708294291</v>
+        <v>9.408075640176207</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14.35677634032646</v>
+        <v>14.4158133168269</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11.16741998004468</v>
+        <v>10.94148508299716</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13.7573586930165</v>
+        <v>13.38614594368946</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14.7811462088097</v>
+        <v>14.85946567691244</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>11.59051686144417</v>
+        <v>11.80260435244972</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.471117502406173</v>
+        <v>9.558591977764905</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12.72733306037102</v>
+        <v>12.74895477290306</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10.43125655768347</v>
+        <v>10.60342154405438</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13.86868035060843</v>
+        <v>14.13817397854444</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8.17636718679978</v>
+        <v>8.365922088962321</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.386436181880981</v>
+        <v>9.663712059897449</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9.795642784771758</v>
+        <v>9.835720709566374</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>11.13942075250216</v>
+        <v>11.02575980958699</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10.73217796575577</v>
+        <v>10.8767219896921</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9.624256105963383</v>
+        <v>9.953928039987233</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>12.4486803563515</v>
+        <v>12.69608608807522</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9.816027062145281</v>
+        <v>9.758379732171761</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11.71341832011754</v>
+        <v>11.59011565465735</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12.25687352345182</v>
+        <v>12.14361763526915</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.367353987687295</v>
+        <v>9.116733211906677</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11.44767278725857</v>
+        <v>11.41770121112199</v>
       </c>
     </row>
   </sheetData>
